--- a/Data/Russian_Universities_Initial.xlsx
+++ b/Data/Russian_Universities_Initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/educauchy/Google Drive/Университет/Магистратура/Research/Programs/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA08269E-4C22-B04A-BAE8-543A9C54FDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E013FF2-146F-7141-8C9C-5E6272000DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6540" windowWidth="28800" windowHeight="11460" xr2:uid="{51EEAB5F-437A-7443-B49F-6569084985F9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{51EEAB5F-437A-7443-B49F-6569084985F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B5B4B-573F-B842-BA0F-08A572ABB545}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Russian_Universities_Initial.xlsx
+++ b/Data/Russian_Universities_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/educauchy/Google Drive/Университет/Магистратура/Research/Programs/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E013FF2-146F-7141-8C9C-5E6272000DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63557FF9-0565-FA42-9673-FBD4DA8D0653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{51EEAB5F-437A-7443-B49F-6569084985F9}"/>
   </bookViews>
@@ -446,9 +446,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -768,7 +771,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,16 +815,16 @@
       <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>189</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>84</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>222</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>87</v>
       </c>
     </row>
@@ -844,7 +847,7 @@
       <c r="F3" s="1">
         <v>302</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>539</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -870,7 +873,7 @@
       <c r="F4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -892,7 +895,7 @@
       <c r="F5" s="1">
         <v>284</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -914,7 +917,7 @@
       <c r="F6" s="1">
         <v>322</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>879</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -940,7 +943,7 @@
       <c r="F7" s="1">
         <v>329</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>726</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -964,7 +967,7 @@
       <c r="F8" s="1">
         <v>366</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -986,7 +989,7 @@
       <c r="F9" s="1">
         <v>392</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>1829</v>
       </c>
       <c r="H9" s="1"/>
@@ -1010,7 +1013,7 @@
       <c r="F10" s="1">
         <v>451</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1401</v>
       </c>
       <c r="H10" s="1"/>
@@ -1032,7 +1035,7 @@
       <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1054,7 +1057,7 @@
       <c r="F12" s="1">
         <v>234</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>560</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1080,7 +1083,7 @@
       <c r="F13" s="1">
         <v>436</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1002</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1106,7 +1109,7 @@
       <c r="F14" s="1">
         <v>439</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1005</v>
       </c>
       <c r="H14" s="1"/>
@@ -1130,7 +1133,7 @@
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1152,7 +1155,7 @@
       <c r="F16" s="1">
         <v>268</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>983</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1178,7 +1181,7 @@
       <c r="F17" s="1">
         <v>387</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1399</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1204,7 +1207,7 @@
       <c r="F18" s="1">
         <v>231</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>610</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1230,7 +1233,7 @@
       <c r="F19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1252,7 +1255,7 @@
       <c r="F20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,7 +1277,7 @@
       <c r="F21" s="1">
         <v>392</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>1090</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1300,7 +1303,7 @@
       <c r="F22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>1505</v>
       </c>
       <c r="H22" s="1"/>
@@ -1324,7 +1327,7 @@
       <c r="F23" s="1">
         <v>364</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>1198</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1350,7 +1353,7 @@
       <c r="F24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>1804</v>
       </c>
       <c r="H24" s="1"/>
@@ -1374,7 +1377,7 @@
       <c r="F25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,7 +1399,7 @@
       <c r="F26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>1489</v>
       </c>
       <c r="H26" s="1"/>
